--- a/테이블 정의서 1010.xlsx
+++ b/테이블 정의서 1010.xlsx
@@ -4,7 +4,7 @@
   <fileVersion appName="xl" lastEdited="4" lowestEdited="4" rupBuild="4505"/>
   <workbookPr filterPrivacy="1" defaultThemeVersion="124226"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="60" windowWidth="19200" windowHeight="11760" tabRatio="869" activeTab="8"/>
+    <workbookView xWindow="0" yWindow="60" windowWidth="19200" windowHeight="11760" tabRatio="869"/>
   </bookViews>
   <sheets>
     <sheet name="기본" sheetId="1" r:id="rId1"/>
@@ -249,7 +249,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="971" uniqueCount="507">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1001" uniqueCount="537">
   <si>
     <t>이름</t>
     <phoneticPr fontId="1" type="noConversion"/>
@@ -2682,10 +2682,6 @@
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
-    <t>메인 / 상품 페이지</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
     <t>[등록/수정/삭제]</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
@@ -2698,10 +2694,6 @@
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
-    <t>게시판 페이지</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
     <t>로그 페이지</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
@@ -2820,10 +2812,6 @@
     <t>p023</t>
   </si>
   <si>
-    <t>한우 설도</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
     <t>한우 목심</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
@@ -3107,6 +3095,127 @@
   </si>
   <si>
     <t>페브리즈</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>메인 / 상품</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>CSS 화면 꾸미기</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>이미지 넣기</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>메인 화면</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>경로문제</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>통조림</t>
+  </si>
+  <si>
+    <t>식용류</t>
+  </si>
+  <si>
+    <t>조미료</t>
+  </si>
+  <si>
+    <t>육류</t>
+  </si>
+  <si>
+    <t>빵</t>
+  </si>
+  <si>
+    <t>세제</t>
+  </si>
+  <si>
+    <t>욕실도구</t>
+  </si>
+  <si>
+    <t>청소도구</t>
+  </si>
+  <si>
+    <t>유지방류</t>
+  </si>
+  <si>
+    <t>차</t>
+  </si>
+  <si>
+    <t>해외식품</t>
+  </si>
+  <si>
+    <t>어류</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>농산물</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>돼지고기</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>소고기</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>닭고기</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>식품</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>유지류</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>주방 제품</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>인스턴스</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>세정 욕실</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>라면</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>음료수</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>과자</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>채소</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>주류</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>게시판</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>게시판</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
 </sst>
@@ -4531,6 +4640,39 @@
     <xf numFmtId="9" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyAlignment="1">
       <alignment vertical="top"/>
     </xf>
+    <xf numFmtId="49" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" indent="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="21" fillId="3" borderId="0" xfId="0" applyFont="1" applyFill="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="21" fillId="4" borderId="0" xfId="0" applyFont="1" applyFill="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="21" fillId="6" borderId="0" xfId="0" applyFont="1" applyFill="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="22" fillId="5" borderId="0" xfId="0" applyFont="1" applyFill="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="23" fillId="5" borderId="0" xfId="0" applyFont="1" applyFill="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="23" fillId="13" borderId="0" xfId="0" applyFont="1" applyFill="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="13" borderId="0" xfId="0" applyFill="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="9" borderId="0" xfId="0" applyFill="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="21" fillId="7" borderId="0" xfId="0" applyFont="1" applyFill="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="21" fillId="14" borderId="0" xfId="0" applyFont="1" applyFill="1">
+      <alignment vertical="center"/>
+    </xf>
     <xf numFmtId="0" fontId="19" fillId="0" borderId="49" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
@@ -4632,39 +4774,6 @@
     </xf>
     <xf numFmtId="49" fontId="0" fillId="0" borderId="35" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center" indent="1"/>
-    </xf>
-    <xf numFmtId="49" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" indent="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="21" fillId="3" borderId="0" xfId="0" applyFont="1" applyFill="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="21" fillId="4" borderId="0" xfId="0" applyFont="1" applyFill="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="21" fillId="6" borderId="0" xfId="0" applyFont="1" applyFill="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="22" fillId="5" borderId="0" xfId="0" applyFont="1" applyFill="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="23" fillId="5" borderId="0" xfId="0" applyFont="1" applyFill="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="23" fillId="13" borderId="0" xfId="0" applyFont="1" applyFill="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="13" borderId="0" xfId="0" applyFill="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="9" borderId="0" xfId="0" applyFill="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="21" fillId="7" borderId="0" xfId="0" applyFont="1" applyFill="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="21" fillId="14" borderId="0" xfId="0" applyFont="1" applyFill="1">
-      <alignment vertical="center"/>
     </xf>
   </cellXfs>
   <cellStyles count="2">
@@ -4675,8 +4784,8 @@
   <tableStyles count="0" defaultTableStyle="TableStyleMedium9" defaultPivotStyle="PivotStyleLight16"/>
   <colors>
     <mruColors>
+      <color rgb="FFFFFF99"/>
       <color rgb="FFFF6699"/>
-      <color rgb="FFFFFF99"/>
     </mruColors>
   </colors>
 </styleSheet>
@@ -5055,8 +5164,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
   <dimension ref="A1:K30"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="G4" sqref="G4"/>
+    <sheetView tabSelected="1" topLeftCell="A10" workbookViewId="0">
+      <selection activeCell="B22" sqref="B22"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="16.5"/>
@@ -5174,7 +5283,7 @@
       <c r="F4" s="153" t="s">
         <v>136</v>
       </c>
-      <c r="G4" s="25" t="s">
+      <c r="G4" s="153" t="s">
         <v>75</v>
       </c>
       <c r="H4" s="25">
@@ -5367,10 +5476,13 @@
         <v>131</v>
       </c>
       <c r="G14" s="1" t="s">
-        <v>406</v>
+        <v>404</v>
       </c>
       <c r="H14" s="1" t="s">
         <v>343</v>
+      </c>
+      <c r="J14" s="1" t="s">
+        <v>505</v>
       </c>
     </row>
     <row r="15" spans="1:11" ht="16.5" customHeight="1">
@@ -5381,10 +5493,13 @@
         <v>125</v>
       </c>
       <c r="G15" s="1" t="s">
-        <v>399</v>
+        <v>397</v>
       </c>
       <c r="H15" s="1" t="s">
-        <v>398</v>
+        <v>396</v>
+      </c>
+      <c r="J15" s="1" t="s">
+        <v>506</v>
       </c>
     </row>
     <row r="16" spans="1:11">
@@ -5398,26 +5513,32 @@
         <v>131</v>
       </c>
       <c r="G16" s="1" t="s">
-        <v>397</v>
+        <v>395</v>
       </c>
       <c r="H16" s="1" t="s">
-        <v>400</v>
-      </c>
-    </row>
-    <row r="17" spans="1:7">
+        <v>398</v>
+      </c>
+      <c r="J16" s="1" t="s">
+        <v>507</v>
+      </c>
+    </row>
+    <row r="17" spans="1:8">
       <c r="D17" s="1" t="s">
         <v>127</v>
       </c>
       <c r="G17" s="1" t="s">
-        <v>405</v>
-      </c>
-    </row>
-    <row r="18" spans="1:7">
+        <v>403</v>
+      </c>
+      <c r="H17" s="1" t="s">
+        <v>535</v>
+      </c>
+    </row>
+    <row r="18" spans="1:8">
       <c r="E18" s="1" t="s">
         <v>132</v>
       </c>
     </row>
-    <row r="19" spans="1:7">
+    <row r="19" spans="1:8">
       <c r="A19" s="1" t="s">
         <v>384</v>
       </c>
@@ -5425,10 +5546,10 @@
         <v>1</v>
       </c>
       <c r="C19" s="1" t="s">
-        <v>392</v>
-      </c>
-    </row>
-    <row r="20" spans="1:7">
+        <v>391</v>
+      </c>
+    </row>
+    <row r="20" spans="1:8">
       <c r="A20" s="1" t="s">
         <v>385</v>
       </c>
@@ -5436,59 +5557,74 @@
         <v>1</v>
       </c>
       <c r="C20" s="1" t="s">
-        <v>392</v>
-      </c>
-    </row>
-    <row r="21" spans="1:7">
+        <v>391</v>
+      </c>
+      <c r="E20" s="1" t="s">
+        <v>508</v>
+      </c>
+    </row>
+    <row r="21" spans="1:8">
       <c r="A21" s="1" t="s">
         <v>390</v>
       </c>
+      <c r="B21" s="160">
+        <v>1</v>
+      </c>
       <c r="C21" s="1" t="s">
+        <v>391</v>
+      </c>
+    </row>
+    <row r="22" spans="1:8">
+      <c r="A22" s="1" t="s">
+        <v>504</v>
+      </c>
+      <c r="B22" s="160">
+        <v>0.5</v>
+      </c>
+      <c r="C22" s="1" t="s">
+        <v>401</v>
+      </c>
+      <c r="D22" s="1" t="s">
+        <v>402</v>
+      </c>
+    </row>
+    <row r="23" spans="1:8">
+      <c r="A23" s="1" t="s">
+        <v>400</v>
+      </c>
+      <c r="B23" s="160">
+        <v>0.5</v>
+      </c>
+      <c r="C23" s="1" t="s">
+        <v>399</v>
+      </c>
+    </row>
+    <row r="24" spans="1:8">
+      <c r="A24" s="1" t="s">
+        <v>536</v>
+      </c>
+      <c r="B24" s="160">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="26" spans="1:8">
+      <c r="A26" s="1" t="s">
+        <v>389</v>
+      </c>
+    </row>
+    <row r="27" spans="1:8">
+      <c r="A27" s="1" t="s">
         <v>392</v>
       </c>
     </row>
-    <row r="22" spans="1:7">
-      <c r="A22" s="1" t="s">
-        <v>391</v>
-      </c>
-      <c r="C22" s="1" t="s">
-        <v>403</v>
-      </c>
-      <c r="D22" s="1" t="s">
-        <v>404</v>
-      </c>
-    </row>
-    <row r="23" spans="1:7">
-      <c r="A23" s="1" t="s">
-        <v>402</v>
-      </c>
-      <c r="C23" s="1" t="s">
-        <v>401</v>
-      </c>
-    </row>
-    <row r="25" spans="1:7">
-      <c r="A25" s="1" t="s">
-        <v>389</v>
-      </c>
-    </row>
-    <row r="27" spans="1:7">
-      <c r="A27" s="1" t="s">
+    <row r="28" spans="1:8">
+      <c r="A28" s="1" t="s">
         <v>393</v>
       </c>
     </row>
-    <row r="28" spans="1:7">
-      <c r="A28" s="1" t="s">
+    <row r="30" spans="1:8">
+      <c r="A30" s="1" t="s">
         <v>394</v>
-      </c>
-    </row>
-    <row r="29" spans="1:7">
-      <c r="A29" s="1" t="s">
-        <v>395</v>
-      </c>
-    </row>
-    <row r="30" spans="1:7">
-      <c r="A30" s="1" t="s">
-        <v>396</v>
       </c>
     </row>
   </sheetData>
@@ -5520,57 +5656,57 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:9">
-      <c r="A1" s="171" t="s">
+      <c r="A1" s="182" t="s">
         <v>42</v>
       </c>
-      <c r="B1" s="172"/>
-      <c r="C1" s="172" t="s">
+      <c r="B1" s="183"/>
+      <c r="C1" s="183" t="s">
         <v>43</v>
       </c>
-      <c r="D1" s="172"/>
-      <c r="E1" s="172"/>
-      <c r="F1" s="173" t="s">
+      <c r="D1" s="183"/>
+      <c r="E1" s="183"/>
+      <c r="F1" s="184" t="s">
         <v>44</v>
       </c>
-      <c r="G1" s="173"/>
-      <c r="H1" s="173" t="s">
+      <c r="G1" s="184"/>
+      <c r="H1" s="184" t="s">
         <v>140</v>
       </c>
-      <c r="I1" s="174"/>
+      <c r="I1" s="185"/>
     </row>
     <row r="2" spans="1:9">
-      <c r="A2" s="175" t="s">
+      <c r="A2" s="186" t="s">
         <v>45</v>
       </c>
-      <c r="B2" s="176"/>
-      <c r="C2" s="176" t="s">
+      <c r="B2" s="187"/>
+      <c r="C2" s="187" t="s">
         <v>209</v>
       </c>
-      <c r="D2" s="176"/>
-      <c r="E2" s="176"/>
-      <c r="F2" s="177" t="s">
+      <c r="D2" s="187"/>
+      <c r="E2" s="187"/>
+      <c r="F2" s="188" t="s">
         <v>39</v>
       </c>
-      <c r="G2" s="177"/>
-      <c r="H2" s="177" t="s">
+      <c r="G2" s="188"/>
+      <c r="H2" s="188" t="s">
         <v>121</v>
       </c>
-      <c r="I2" s="178"/>
+      <c r="I2" s="189"/>
     </row>
     <row r="3" spans="1:9" ht="17.25" thickBot="1">
-      <c r="A3" s="166" t="s">
+      <c r="A3" s="177" t="s">
         <v>46</v>
       </c>
-      <c r="B3" s="167"/>
-      <c r="C3" s="192" t="s">
+      <c r="B3" s="178"/>
+      <c r="C3" s="203" t="s">
         <v>159</v>
       </c>
-      <c r="D3" s="193"/>
-      <c r="E3" s="193"/>
-      <c r="F3" s="193"/>
-      <c r="G3" s="193"/>
-      <c r="H3" s="193"/>
-      <c r="I3" s="194"/>
+      <c r="D3" s="204"/>
+      <c r="E3" s="204"/>
+      <c r="F3" s="204"/>
+      <c r="G3" s="204"/>
+      <c r="H3" s="204"/>
+      <c r="I3" s="205"/>
     </row>
     <row r="4" spans="1:9">
       <c r="A4" s="94" t="s">
@@ -5787,57 +5923,57 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:9">
-      <c r="A1" s="171" t="s">
+      <c r="A1" s="182" t="s">
         <v>42</v>
       </c>
-      <c r="B1" s="172"/>
-      <c r="C1" s="172" t="s">
+      <c r="B1" s="183"/>
+      <c r="C1" s="183" t="s">
         <v>43</v>
       </c>
-      <c r="D1" s="172"/>
-      <c r="E1" s="172"/>
-      <c r="F1" s="173" t="s">
+      <c r="D1" s="183"/>
+      <c r="E1" s="183"/>
+      <c r="F1" s="184" t="s">
         <v>44</v>
       </c>
-      <c r="G1" s="173"/>
-      <c r="H1" s="173" t="s">
+      <c r="G1" s="184"/>
+      <c r="H1" s="184" t="s">
         <v>140</v>
       </c>
-      <c r="I1" s="174"/>
+      <c r="I1" s="185"/>
     </row>
     <row r="2" spans="1:9">
-      <c r="A2" s="175" t="s">
+      <c r="A2" s="186" t="s">
         <v>45</v>
       </c>
-      <c r="B2" s="176"/>
-      <c r="C2" s="176" t="s">
+      <c r="B2" s="187"/>
+      <c r="C2" s="187" t="s">
         <v>203</v>
       </c>
-      <c r="D2" s="176"/>
-      <c r="E2" s="176"/>
-      <c r="F2" s="177" t="s">
+      <c r="D2" s="187"/>
+      <c r="E2" s="187"/>
+      <c r="F2" s="188" t="s">
         <v>39</v>
       </c>
-      <c r="G2" s="177"/>
-      <c r="H2" s="177" t="s">
+      <c r="G2" s="188"/>
+      <c r="H2" s="188" t="s">
         <v>121</v>
       </c>
-      <c r="I2" s="178"/>
+      <c r="I2" s="189"/>
     </row>
     <row r="3" spans="1:9" ht="17.25" thickBot="1">
-      <c r="A3" s="166" t="s">
+      <c r="A3" s="177" t="s">
         <v>46</v>
       </c>
-      <c r="B3" s="167"/>
-      <c r="C3" s="168" t="s">
+      <c r="B3" s="178"/>
+      <c r="C3" s="179" t="s">
         <v>202</v>
       </c>
-      <c r="D3" s="169"/>
-      <c r="E3" s="169"/>
-      <c r="F3" s="169"/>
-      <c r="G3" s="169"/>
-      <c r="H3" s="169"/>
-      <c r="I3" s="170"/>
+      <c r="D3" s="180"/>
+      <c r="E3" s="180"/>
+      <c r="F3" s="180"/>
+      <c r="G3" s="180"/>
+      <c r="H3" s="180"/>
+      <c r="I3" s="181"/>
     </row>
     <row r="4" spans="1:9" ht="17.25" thickBot="1">
       <c r="A4" s="34" t="s">
@@ -6032,57 +6168,57 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:9">
-      <c r="A1" s="171" t="s">
+      <c r="A1" s="182" t="s">
         <v>42</v>
       </c>
-      <c r="B1" s="172"/>
-      <c r="C1" s="172" t="s">
+      <c r="B1" s="183"/>
+      <c r="C1" s="183" t="s">
         <v>43</v>
       </c>
-      <c r="D1" s="172"/>
-      <c r="E1" s="172"/>
-      <c r="F1" s="173" t="s">
+      <c r="D1" s="183"/>
+      <c r="E1" s="183"/>
+      <c r="F1" s="184" t="s">
         <v>44</v>
       </c>
-      <c r="G1" s="173"/>
-      <c r="H1" s="173" t="s">
+      <c r="G1" s="184"/>
+      <c r="H1" s="184" t="s">
         <v>140</v>
       </c>
-      <c r="I1" s="174"/>
+      <c r="I1" s="185"/>
     </row>
     <row r="2" spans="1:9">
-      <c r="A2" s="175" t="s">
+      <c r="A2" s="186" t="s">
         <v>45</v>
       </c>
-      <c r="B2" s="176"/>
-      <c r="C2" s="176" t="s">
+      <c r="B2" s="187"/>
+      <c r="C2" s="187" t="s">
         <v>321</v>
       </c>
-      <c r="D2" s="176"/>
-      <c r="E2" s="176"/>
-      <c r="F2" s="177" t="s">
+      <c r="D2" s="187"/>
+      <c r="E2" s="187"/>
+      <c r="F2" s="188" t="s">
         <v>39</v>
       </c>
-      <c r="G2" s="177"/>
-      <c r="H2" s="177" t="s">
+      <c r="G2" s="188"/>
+      <c r="H2" s="188" t="s">
         <v>121</v>
       </c>
-      <c r="I2" s="178"/>
+      <c r="I2" s="189"/>
     </row>
     <row r="3" spans="1:9" ht="17.25" thickBot="1">
-      <c r="A3" s="166" t="s">
+      <c r="A3" s="177" t="s">
         <v>46</v>
       </c>
-      <c r="B3" s="167"/>
-      <c r="C3" s="168" t="s">
+      <c r="B3" s="178"/>
+      <c r="C3" s="179" t="s">
         <v>204</v>
       </c>
-      <c r="D3" s="169"/>
-      <c r="E3" s="169"/>
-      <c r="F3" s="169"/>
-      <c r="G3" s="169"/>
-      <c r="H3" s="169"/>
-      <c r="I3" s="170"/>
+      <c r="D3" s="180"/>
+      <c r="E3" s="180"/>
+      <c r="F3" s="180"/>
+      <c r="G3" s="180"/>
+      <c r="H3" s="180"/>
+      <c r="I3" s="181"/>
     </row>
     <row r="4" spans="1:9" ht="17.25" thickBot="1">
       <c r="A4" s="34" t="s">
@@ -6352,57 +6488,57 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:9">
-      <c r="A1" s="171" t="s">
+      <c r="A1" s="182" t="s">
         <v>42</v>
       </c>
-      <c r="B1" s="172"/>
-      <c r="C1" s="172" t="s">
+      <c r="B1" s="183"/>
+      <c r="C1" s="183" t="s">
         <v>43</v>
       </c>
-      <c r="D1" s="172"/>
-      <c r="E1" s="172"/>
-      <c r="F1" s="173" t="s">
+      <c r="D1" s="183"/>
+      <c r="E1" s="183"/>
+      <c r="F1" s="184" t="s">
         <v>44</v>
       </c>
-      <c r="G1" s="173"/>
-      <c r="H1" s="173" t="s">
+      <c r="G1" s="184"/>
+      <c r="H1" s="184" t="s">
         <v>140</v>
       </c>
-      <c r="I1" s="174"/>
+      <c r="I1" s="185"/>
     </row>
     <row r="2" spans="1:9">
-      <c r="A2" s="175" t="s">
+      <c r="A2" s="186" t="s">
         <v>45</v>
       </c>
-      <c r="B2" s="176"/>
-      <c r="C2" s="176" t="s">
+      <c r="B2" s="187"/>
+      <c r="C2" s="187" t="s">
         <v>324</v>
       </c>
-      <c r="D2" s="176"/>
-      <c r="E2" s="176"/>
-      <c r="F2" s="177" t="s">
+      <c r="D2" s="187"/>
+      <c r="E2" s="187"/>
+      <c r="F2" s="188" t="s">
         <v>39</v>
       </c>
-      <c r="G2" s="177"/>
-      <c r="H2" s="177" t="s">
+      <c r="G2" s="188"/>
+      <c r="H2" s="188" t="s">
         <v>121</v>
       </c>
-      <c r="I2" s="178"/>
+      <c r="I2" s="189"/>
     </row>
     <row r="3" spans="1:9" ht="17.25" thickBot="1">
-      <c r="A3" s="166" t="s">
+      <c r="A3" s="177" t="s">
         <v>46</v>
       </c>
-      <c r="B3" s="167"/>
-      <c r="C3" s="192" t="s">
+      <c r="B3" s="178"/>
+      <c r="C3" s="203" t="s">
         <v>205</v>
       </c>
-      <c r="D3" s="193"/>
-      <c r="E3" s="193"/>
-      <c r="F3" s="193"/>
-      <c r="G3" s="193"/>
-      <c r="H3" s="193"/>
-      <c r="I3" s="194"/>
+      <c r="D3" s="204"/>
+      <c r="E3" s="204"/>
+      <c r="F3" s="204"/>
+      <c r="G3" s="204"/>
+      <c r="H3" s="204"/>
+      <c r="I3" s="205"/>
     </row>
     <row r="4" spans="1:9">
       <c r="A4" s="94" t="s">
@@ -6649,57 +6785,57 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:9">
-      <c r="A1" s="171" t="s">
+      <c r="A1" s="182" t="s">
         <v>42</v>
       </c>
-      <c r="B1" s="172"/>
-      <c r="C1" s="172" t="s">
+      <c r="B1" s="183"/>
+      <c r="C1" s="183" t="s">
         <v>43</v>
       </c>
-      <c r="D1" s="172"/>
-      <c r="E1" s="172"/>
-      <c r="F1" s="173" t="s">
+      <c r="D1" s="183"/>
+      <c r="E1" s="183"/>
+      <c r="F1" s="184" t="s">
         <v>44</v>
       </c>
-      <c r="G1" s="173"/>
-      <c r="H1" s="173" t="s">
+      <c r="G1" s="184"/>
+      <c r="H1" s="184" t="s">
         <v>140</v>
       </c>
-      <c r="I1" s="174"/>
+      <c r="I1" s="185"/>
     </row>
     <row r="2" spans="1:9">
-      <c r="A2" s="175" t="s">
+      <c r="A2" s="186" t="s">
         <v>45</v>
       </c>
-      <c r="B2" s="176"/>
-      <c r="C2" s="176" t="s">
+      <c r="B2" s="187"/>
+      <c r="C2" s="187" t="s">
         <v>207</v>
       </c>
-      <c r="D2" s="176"/>
-      <c r="E2" s="176"/>
-      <c r="F2" s="177" t="s">
+      <c r="D2" s="187"/>
+      <c r="E2" s="187"/>
+      <c r="F2" s="188" t="s">
         <v>39</v>
       </c>
-      <c r="G2" s="177"/>
-      <c r="H2" s="177" t="s">
+      <c r="G2" s="188"/>
+      <c r="H2" s="188" t="s">
         <v>121</v>
       </c>
-      <c r="I2" s="178"/>
+      <c r="I2" s="189"/>
     </row>
     <row r="3" spans="1:9" ht="17.25" thickBot="1">
-      <c r="A3" s="166" t="s">
+      <c r="A3" s="177" t="s">
         <v>46</v>
       </c>
-      <c r="B3" s="167"/>
-      <c r="C3" s="168" t="s">
+      <c r="B3" s="178"/>
+      <c r="C3" s="179" t="s">
         <v>206</v>
       </c>
-      <c r="D3" s="169"/>
-      <c r="E3" s="169"/>
-      <c r="F3" s="169"/>
-      <c r="G3" s="169"/>
-      <c r="H3" s="169"/>
-      <c r="I3" s="170"/>
+      <c r="D3" s="180"/>
+      <c r="E3" s="180"/>
+      <c r="F3" s="180"/>
+      <c r="G3" s="180"/>
+      <c r="H3" s="180"/>
+      <c r="I3" s="181"/>
     </row>
     <row r="4" spans="1:9" ht="17.25" thickBot="1">
       <c r="A4" s="34" t="s">
@@ -6947,57 +7083,57 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:9">
-      <c r="A1" s="171" t="s">
+      <c r="A1" s="182" t="s">
         <v>42</v>
       </c>
-      <c r="B1" s="172"/>
-      <c r="C1" s="172" t="s">
+      <c r="B1" s="183"/>
+      <c r="C1" s="183" t="s">
         <v>43</v>
       </c>
-      <c r="D1" s="172"/>
-      <c r="E1" s="172"/>
-      <c r="F1" s="173" t="s">
+      <c r="D1" s="183"/>
+      <c r="E1" s="183"/>
+      <c r="F1" s="184" t="s">
         <v>44</v>
       </c>
-      <c r="G1" s="173"/>
-      <c r="H1" s="173" t="s">
+      <c r="G1" s="184"/>
+      <c r="H1" s="184" t="s">
         <v>140</v>
       </c>
-      <c r="I1" s="174"/>
+      <c r="I1" s="185"/>
     </row>
     <row r="2" spans="1:9">
-      <c r="A2" s="175" t="s">
+      <c r="A2" s="186" t="s">
         <v>45</v>
       </c>
-      <c r="B2" s="176"/>
-      <c r="C2" s="176" t="s">
+      <c r="B2" s="187"/>
+      <c r="C2" s="187" t="s">
         <v>379</v>
       </c>
-      <c r="D2" s="176"/>
-      <c r="E2" s="176"/>
-      <c r="F2" s="177" t="s">
+      <c r="D2" s="187"/>
+      <c r="E2" s="187"/>
+      <c r="F2" s="188" t="s">
         <v>39</v>
       </c>
-      <c r="G2" s="177"/>
-      <c r="H2" s="177" t="s">
+      <c r="G2" s="188"/>
+      <c r="H2" s="188" t="s">
         <v>121</v>
       </c>
-      <c r="I2" s="178"/>
+      <c r="I2" s="189"/>
     </row>
     <row r="3" spans="1:9" ht="17.25" thickBot="1">
-      <c r="A3" s="166" t="s">
+      <c r="A3" s="177" t="s">
         <v>46</v>
       </c>
-      <c r="B3" s="167"/>
-      <c r="C3" s="192" t="s">
+      <c r="B3" s="178"/>
+      <c r="C3" s="203" t="s">
         <v>208</v>
       </c>
-      <c r="D3" s="193"/>
-      <c r="E3" s="193"/>
-      <c r="F3" s="193"/>
-      <c r="G3" s="193"/>
-      <c r="H3" s="193"/>
-      <c r="I3" s="194"/>
+      <c r="D3" s="204"/>
+      <c r="E3" s="204"/>
+      <c r="F3" s="204"/>
+      <c r="G3" s="204"/>
+      <c r="H3" s="204"/>
+      <c r="I3" s="205"/>
     </row>
     <row r="4" spans="1:9">
       <c r="A4" s="94" t="s">
@@ -7606,36 +7742,36 @@
       <c r="A11" s="140" t="s">
         <v>279</v>
       </c>
-      <c r="B11" s="161" t="s">
+      <c r="B11" s="172" t="s">
         <v>280</v>
       </c>
-      <c r="C11" s="162"/>
-      <c r="D11" s="162"/>
-      <c r="E11" s="162"/>
-      <c r="F11" s="162"/>
-      <c r="G11" s="163" t="s">
+      <c r="C11" s="173"/>
+      <c r="D11" s="173"/>
+      <c r="E11" s="173"/>
+      <c r="F11" s="173"/>
+      <c r="G11" s="174" t="s">
         <v>281</v>
       </c>
-      <c r="H11" s="164"/>
-      <c r="I11" s="164"/>
-      <c r="J11" s="164"/>
-      <c r="K11" s="164"/>
-      <c r="L11" s="164"/>
-      <c r="M11" s="164"/>
-      <c r="N11" s="163" t="s">
+      <c r="H11" s="175"/>
+      <c r="I11" s="175"/>
+      <c r="J11" s="175"/>
+      <c r="K11" s="175"/>
+      <c r="L11" s="175"/>
+      <c r="M11" s="175"/>
+      <c r="N11" s="174" t="s">
         <v>282</v>
       </c>
-      <c r="O11" s="164"/>
-      <c r="P11" s="164"/>
-      <c r="Q11" s="164"/>
-      <c r="R11" s="164"/>
-      <c r="S11" s="164"/>
-      <c r="T11" s="163" t="s">
+      <c r="O11" s="175"/>
+      <c r="P11" s="175"/>
+      <c r="Q11" s="175"/>
+      <c r="R11" s="175"/>
+      <c r="S11" s="175"/>
+      <c r="T11" s="174" t="s">
         <v>283</v>
       </c>
-      <c r="U11" s="164"/>
-      <c r="V11" s="164"/>
-      <c r="W11" s="165"/>
+      <c r="U11" s="175"/>
+      <c r="V11" s="175"/>
+      <c r="W11" s="176"/>
     </row>
   </sheetData>
   <mergeCells count="4">
@@ -7762,57 +7898,57 @@
     </row>
     <row r="3" spans="1:9" ht="17.25" thickBot="1"/>
     <row r="4" spans="1:9">
-      <c r="A4" s="171" t="s">
+      <c r="A4" s="182" t="s">
         <v>42</v>
       </c>
-      <c r="B4" s="172"/>
-      <c r="C4" s="172" t="s">
+      <c r="B4" s="183"/>
+      <c r="C4" s="183" t="s">
         <v>43</v>
       </c>
-      <c r="D4" s="172"/>
-      <c r="E4" s="172"/>
-      <c r="F4" s="173" t="s">
+      <c r="D4" s="183"/>
+      <c r="E4" s="183"/>
+      <c r="F4" s="184" t="s">
         <v>44</v>
       </c>
-      <c r="G4" s="173"/>
-      <c r="H4" s="173" t="s">
+      <c r="G4" s="184"/>
+      <c r="H4" s="184" t="s">
         <v>97</v>
       </c>
-      <c r="I4" s="174"/>
+      <c r="I4" s="185"/>
     </row>
     <row r="5" spans="1:9">
-      <c r="A5" s="175" t="s">
+      <c r="A5" s="186" t="s">
         <v>45</v>
       </c>
-      <c r="B5" s="176"/>
-      <c r="C5" s="176" t="s">
+      <c r="B5" s="187"/>
+      <c r="C5" s="187" t="s">
         <v>382</v>
       </c>
-      <c r="D5" s="176"/>
-      <c r="E5" s="176"/>
-      <c r="F5" s="177" t="s">
+      <c r="D5" s="187"/>
+      <c r="E5" s="187"/>
+      <c r="F5" s="188" t="s">
         <v>39</v>
       </c>
-      <c r="G5" s="177"/>
-      <c r="H5" s="177" t="s">
+      <c r="G5" s="188"/>
+      <c r="H5" s="188" t="s">
         <v>121</v>
       </c>
-      <c r="I5" s="178"/>
+      <c r="I5" s="189"/>
     </row>
     <row r="6" spans="1:9" ht="17.25" thickBot="1">
-      <c r="A6" s="166" t="s">
+      <c r="A6" s="177" t="s">
         <v>46</v>
       </c>
-      <c r="B6" s="167"/>
-      <c r="C6" s="168" t="s">
+      <c r="B6" s="178"/>
+      <c r="C6" s="179" t="s">
         <v>147</v>
       </c>
-      <c r="D6" s="169"/>
-      <c r="E6" s="169"/>
-      <c r="F6" s="169"/>
-      <c r="G6" s="169"/>
-      <c r="H6" s="169"/>
-      <c r="I6" s="170"/>
+      <c r="D6" s="180"/>
+      <c r="E6" s="180"/>
+      <c r="F6" s="180"/>
+      <c r="G6" s="180"/>
+      <c r="H6" s="180"/>
+      <c r="I6" s="181"/>
     </row>
     <row r="7" spans="1:9" ht="17.25" thickBot="1">
       <c r="A7" s="34" t="s">
@@ -8035,57 +8171,57 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:9">
-      <c r="A1" s="186" t="s">
+      <c r="A1" s="197" t="s">
         <v>42</v>
       </c>
-      <c r="B1" s="187"/>
-      <c r="C1" s="187" t="s">
+      <c r="B1" s="198"/>
+      <c r="C1" s="198" t="s">
         <v>43</v>
       </c>
-      <c r="D1" s="187"/>
-      <c r="E1" s="187"/>
-      <c r="F1" s="191" t="s">
+      <c r="D1" s="198"/>
+      <c r="E1" s="198"/>
+      <c r="F1" s="202" t="s">
         <v>44</v>
       </c>
-      <c r="G1" s="191"/>
-      <c r="H1" s="188">
+      <c r="G1" s="202"/>
+      <c r="H1" s="199">
         <v>42642</v>
       </c>
-      <c r="I1" s="189"/>
+      <c r="I1" s="200"/>
     </row>
     <row r="2" spans="1:9">
-      <c r="A2" s="184" t="s">
+      <c r="A2" s="195" t="s">
         <v>45</v>
       </c>
-      <c r="B2" s="185"/>
-      <c r="C2" s="185" t="s">
+      <c r="B2" s="196"/>
+      <c r="C2" s="196" t="s">
         <v>378</v>
       </c>
-      <c r="D2" s="185"/>
-      <c r="E2" s="185"/>
-      <c r="F2" s="190" t="s">
+      <c r="D2" s="196"/>
+      <c r="E2" s="196"/>
+      <c r="F2" s="201" t="s">
         <v>39</v>
       </c>
-      <c r="G2" s="190"/>
-      <c r="H2" s="177" t="s">
+      <c r="G2" s="201"/>
+      <c r="H2" s="188" t="s">
         <v>121</v>
       </c>
-      <c r="I2" s="178"/>
+      <c r="I2" s="189"/>
     </row>
     <row r="3" spans="1:9" ht="17.25" thickBot="1">
-      <c r="A3" s="182" t="s">
+      <c r="A3" s="193" t="s">
         <v>46</v>
       </c>
-      <c r="B3" s="183"/>
-      <c r="C3" s="179" t="s">
+      <c r="B3" s="194"/>
+      <c r="C3" s="190" t="s">
         <v>66</v>
       </c>
-      <c r="D3" s="180"/>
-      <c r="E3" s="180"/>
-      <c r="F3" s="180"/>
-      <c r="G3" s="180"/>
-      <c r="H3" s="180"/>
-      <c r="I3" s="181"/>
+      <c r="D3" s="191"/>
+      <c r="E3" s="191"/>
+      <c r="F3" s="191"/>
+      <c r="G3" s="191"/>
+      <c r="H3" s="191"/>
+      <c r="I3" s="192"/>
     </row>
     <row r="4" spans="1:9" ht="17.25" thickBot="1">
       <c r="A4" s="17" t="s">
@@ -8457,23 +8593,23 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:15">
-      <c r="A1" s="171" t="s">
+      <c r="A1" s="182" t="s">
         <v>42</v>
       </c>
-      <c r="B1" s="172"/>
-      <c r="C1" s="172" t="s">
+      <c r="B1" s="183"/>
+      <c r="C1" s="183" t="s">
         <v>43</v>
       </c>
-      <c r="D1" s="172"/>
-      <c r="E1" s="172"/>
-      <c r="F1" s="173" t="s">
+      <c r="D1" s="183"/>
+      <c r="E1" s="183"/>
+      <c r="F1" s="184" t="s">
         <v>44</v>
       </c>
-      <c r="G1" s="173"/>
-      <c r="H1" s="173" t="s">
+      <c r="G1" s="184"/>
+      <c r="H1" s="184" t="s">
         <v>97</v>
       </c>
-      <c r="I1" s="174"/>
+      <c r="I1" s="185"/>
       <c r="J1" s="32"/>
       <c r="K1" s="32"/>
       <c r="L1" s="32"/>
@@ -8482,38 +8618,38 @@
       <c r="O1" s="32"/>
     </row>
     <row r="2" spans="1:15">
-      <c r="A2" s="175" t="s">
+      <c r="A2" s="186" t="s">
         <v>45</v>
       </c>
-      <c r="B2" s="176"/>
-      <c r="C2" s="176" t="s">
+      <c r="B2" s="187"/>
+      <c r="C2" s="187" t="s">
         <v>285</v>
       </c>
-      <c r="D2" s="176"/>
-      <c r="E2" s="176"/>
-      <c r="F2" s="177" t="s">
+      <c r="D2" s="187"/>
+      <c r="E2" s="187"/>
+      <c r="F2" s="188" t="s">
         <v>39</v>
       </c>
-      <c r="G2" s="177"/>
-      <c r="H2" s="177" t="s">
+      <c r="G2" s="188"/>
+      <c r="H2" s="188" t="s">
         <v>121</v>
       </c>
-      <c r="I2" s="178"/>
+      <c r="I2" s="189"/>
     </row>
     <row r="3" spans="1:15" ht="17.25" thickBot="1">
-      <c r="A3" s="166" t="s">
+      <c r="A3" s="177" t="s">
         <v>46</v>
       </c>
-      <c r="B3" s="167"/>
-      <c r="C3" s="168" t="s">
+      <c r="B3" s="178"/>
+      <c r="C3" s="179" t="s">
         <v>96</v>
       </c>
-      <c r="D3" s="169"/>
-      <c r="E3" s="169"/>
-      <c r="F3" s="169"/>
-      <c r="G3" s="169"/>
-      <c r="H3" s="169"/>
-      <c r="I3" s="170"/>
+      <c r="D3" s="180"/>
+      <c r="E3" s="180"/>
+      <c r="F3" s="180"/>
+      <c r="G3" s="180"/>
+      <c r="H3" s="180"/>
+      <c r="I3" s="181"/>
     </row>
     <row r="4" spans="1:15" ht="17.25" thickBot="1">
       <c r="A4" s="34" t="s">
@@ -9062,10 +9198,10 @@
 
 <file path=xl/worksheets/sheet8.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:I6"/>
+  <dimension ref="A1:Q10"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="B5" sqref="B5:B6"/>
+    <sheetView topLeftCell="C1" workbookViewId="0">
+      <selection activeCell="K11" sqref="K11"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="16.5"/>
@@ -9080,60 +9216,75 @@
     <col min="9" max="9" width="5.625" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:9">
-      <c r="A1" s="171" t="s">
+    <row r="1" spans="1:17">
+      <c r="A1" s="182" t="s">
         <v>42</v>
       </c>
-      <c r="B1" s="172"/>
-      <c r="C1" s="172" t="s">
+      <c r="B1" s="183"/>
+      <c r="C1" s="183" t="s">
         <v>43</v>
       </c>
-      <c r="D1" s="172"/>
-      <c r="E1" s="172"/>
-      <c r="F1" s="173" t="s">
+      <c r="D1" s="183"/>
+      <c r="E1" s="183"/>
+      <c r="F1" s="184" t="s">
         <v>44</v>
       </c>
-      <c r="G1" s="173"/>
-      <c r="H1" s="173" t="s">
+      <c r="G1" s="184"/>
+      <c r="H1" s="184" t="s">
         <v>140</v>
       </c>
-      <c r="I1" s="174"/>
-    </row>
-    <row r="2" spans="1:9">
-      <c r="A2" s="175" t="s">
+      <c r="I1" s="185"/>
+    </row>
+    <row r="2" spans="1:17">
+      <c r="A2" s="186" t="s">
         <v>45</v>
       </c>
-      <c r="B2" s="176"/>
-      <c r="C2" s="176" t="s">
+      <c r="B2" s="187"/>
+      <c r="C2" s="187" t="s">
         <v>201</v>
       </c>
-      <c r="D2" s="176"/>
-      <c r="E2" s="176"/>
-      <c r="F2" s="177" t="s">
+      <c r="D2" s="187"/>
+      <c r="E2" s="187"/>
+      <c r="F2" s="188" t="s">
         <v>39</v>
       </c>
-      <c r="G2" s="177"/>
-      <c r="H2" s="177" t="s">
+      <c r="G2" s="188"/>
+      <c r="H2" s="188" t="s">
         <v>121</v>
       </c>
-      <c r="I2" s="178"/>
-    </row>
-    <row r="3" spans="1:9" ht="17.25" thickBot="1">
-      <c r="A3" s="166" t="s">
+      <c r="I2" s="189"/>
+    </row>
+    <row r="3" spans="1:17" ht="17.25" thickBot="1">
+      <c r="A3" s="177" t="s">
         <v>46</v>
       </c>
-      <c r="B3" s="167"/>
-      <c r="C3" s="168" t="s">
+      <c r="B3" s="178"/>
+      <c r="C3" s="179" t="s">
         <v>146</v>
       </c>
-      <c r="D3" s="169"/>
-      <c r="E3" s="169"/>
-      <c r="F3" s="169"/>
-      <c r="G3" s="169"/>
-      <c r="H3" s="169"/>
-      <c r="I3" s="170"/>
-    </row>
-    <row r="4" spans="1:9" ht="17.25" thickBot="1">
+      <c r="D3" s="180"/>
+      <c r="E3" s="180"/>
+      <c r="F3" s="180"/>
+      <c r="G3" s="180"/>
+      <c r="H3" s="180"/>
+      <c r="I3" s="181"/>
+      <c r="K3">
+        <v>1</v>
+      </c>
+      <c r="L3" t="s">
+        <v>512</v>
+      </c>
+      <c r="M3" t="s">
+        <v>523</v>
+      </c>
+      <c r="N3" t="s">
+        <v>522</v>
+      </c>
+      <c r="O3" t="s">
+        <v>524</v>
+      </c>
+    </row>
+    <row r="4" spans="1:17" ht="17.25" thickBot="1">
       <c r="A4" s="34" t="s">
         <v>47</v>
       </c>
@@ -9161,8 +9312,14 @@
       <c r="I4" s="36" t="s">
         <v>55</v>
       </c>
-    </row>
-    <row r="5" spans="1:9">
+      <c r="K4">
+        <v>2</v>
+      </c>
+      <c r="L4" t="s">
+        <v>520</v>
+      </c>
+    </row>
+    <row r="5" spans="1:17">
       <c r="A5" s="37">
         <v>1</v>
       </c>
@@ -9184,8 +9341,17 @@
       </c>
       <c r="H5" s="41"/>
       <c r="I5" s="42"/>
-    </row>
-    <row r="6" spans="1:9" ht="17.25" thickBot="1">
+      <c r="K5">
+        <v>3</v>
+      </c>
+      <c r="L5" t="s">
+        <v>521</v>
+      </c>
+      <c r="M5" t="s">
+        <v>533</v>
+      </c>
+    </row>
+    <row r="6" spans="1:17" ht="17.25" thickBot="1">
       <c r="A6" s="51">
         <v>2</v>
       </c>
@@ -9209,6 +9375,86 @@
       </c>
       <c r="H6" s="54"/>
       <c r="I6" s="55"/>
+      <c r="K6">
+        <v>4</v>
+      </c>
+      <c r="L6" t="s">
+        <v>525</v>
+      </c>
+      <c r="M6" t="s">
+        <v>531</v>
+      </c>
+      <c r="N6" t="s">
+        <v>532</v>
+      </c>
+      <c r="O6" t="s">
+        <v>519</v>
+      </c>
+      <c r="P6" t="s">
+        <v>513</v>
+      </c>
+      <c r="Q6" t="s">
+        <v>534</v>
+      </c>
+    </row>
+    <row r="7" spans="1:17">
+      <c r="K7">
+        <v>5</v>
+      </c>
+      <c r="L7" t="s">
+        <v>526</v>
+      </c>
+      <c r="M7" t="s">
+        <v>517</v>
+      </c>
+    </row>
+    <row r="8" spans="1:17">
+      <c r="K8">
+        <v>6</v>
+      </c>
+      <c r="L8" t="s">
+        <v>527</v>
+      </c>
+      <c r="M8" t="s">
+        <v>514</v>
+      </c>
+      <c r="N8" t="s">
+        <v>510</v>
+      </c>
+      <c r="O8" t="s">
+        <v>511</v>
+      </c>
+    </row>
+    <row r="9" spans="1:17">
+      <c r="K9">
+        <v>7</v>
+      </c>
+      <c r="L9" t="s">
+        <v>528</v>
+      </c>
+      <c r="M9" t="s">
+        <v>530</v>
+      </c>
+      <c r="N9" t="s">
+        <v>518</v>
+      </c>
+      <c r="O9" t="s">
+        <v>509</v>
+      </c>
+    </row>
+    <row r="10" spans="1:17">
+      <c r="K10">
+        <v>8</v>
+      </c>
+      <c r="L10" t="s">
+        <v>529</v>
+      </c>
+      <c r="M10" t="s">
+        <v>515</v>
+      </c>
+      <c r="N10" t="s">
+        <v>516</v>
+      </c>
     </row>
   </sheetData>
   <mergeCells count="10">
@@ -9233,8 +9479,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
   <dimension ref="A1:M51"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="K2" sqref="K2:M51"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="D18" sqref="D18"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="16.5"/>
@@ -9251,74 +9497,69 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:13">
-      <c r="A1" s="171" t="s">
+      <c r="A1" s="182" t="s">
         <v>42</v>
       </c>
-      <c r="B1" s="172"/>
-      <c r="C1" s="172" t="s">
+      <c r="B1" s="183"/>
+      <c r="C1" s="183" t="s">
         <v>43</v>
       </c>
-      <c r="D1" s="172"/>
-      <c r="E1" s="172"/>
-      <c r="F1" s="173" t="s">
+      <c r="D1" s="183"/>
+      <c r="E1" s="183"/>
+      <c r="F1" s="184" t="s">
         <v>44</v>
       </c>
-      <c r="G1" s="173"/>
-      <c r="H1" s="173" t="s">
+      <c r="G1" s="184"/>
+      <c r="H1" s="184" t="s">
         <v>140</v>
       </c>
-      <c r="I1" s="174"/>
+      <c r="I1" s="185"/>
     </row>
     <row r="2" spans="1:13">
-      <c r="A2" s="175" t="s">
+      <c r="A2" s="186" t="s">
         <v>45</v>
       </c>
-      <c r="B2" s="176"/>
-      <c r="C2" s="176" t="s">
+      <c r="B2" s="187"/>
+      <c r="C2" s="187" t="s">
         <v>310</v>
       </c>
-      <c r="D2" s="176"/>
-      <c r="E2" s="176"/>
-      <c r="F2" s="177" t="s">
+      <c r="D2" s="187"/>
+      <c r="E2" s="187"/>
+      <c r="F2" s="188" t="s">
         <v>39</v>
       </c>
-      <c r="G2" s="177"/>
-      <c r="H2" s="177" t="s">
+      <c r="G2" s="188"/>
+      <c r="H2" s="188" t="s">
         <v>121</v>
       </c>
-      <c r="I2" s="178"/>
-      <c r="K2" s="196" t="s">
-        <v>430</v>
-      </c>
-      <c r="L2">
-        <v>19000</v>
-      </c>
+      <c r="I2" s="189"/>
+      <c r="K2" s="162"/>
       <c r="M2" t="s">
-        <v>407</v>
+        <v>405</v>
       </c>
     </row>
     <row r="3" spans="1:13" ht="17.25" thickBot="1">
-      <c r="A3" s="166" t="s">
+      <c r="A3" s="177" t="s">
         <v>46</v>
       </c>
-      <c r="B3" s="167"/>
-      <c r="C3" s="168" t="s">
+      <c r="B3" s="178"/>
+      <c r="C3" s="179" t="s">
         <v>142</v>
       </c>
-      <c r="D3" s="169"/>
-      <c r="E3" s="169"/>
-      <c r="F3" s="169"/>
-      <c r="G3" s="169"/>
-      <c r="H3" s="169"/>
-      <c r="I3" s="170"/>
-      <c r="K3" s="196" t="s">
-        <v>431</v>
+      <c r="D3" s="180"/>
+      <c r="E3" s="180"/>
+      <c r="F3" s="180"/>
+      <c r="G3" s="180"/>
+      <c r="H3" s="180"/>
+      <c r="I3" s="181"/>
+      <c r="K3" s="162" t="s">
+        <v>428</v>
       </c>
       <c r="L3">
         <v>19000</v>
       </c>
       <c r="M3" t="s">
-        <v>408</v>
+        <v>406</v>
       </c>
     </row>
     <row r="4" spans="1:13" ht="17.25" thickBot="1">
@@ -9349,14 +9590,14 @@
       <c r="I4" s="36" t="s">
         <v>55</v>
       </c>
-      <c r="K4" s="196" t="s">
-        <v>432</v>
+      <c r="K4" s="162" t="s">
+        <v>429</v>
       </c>
       <c r="L4">
         <v>15000</v>
       </c>
       <c r="M4" t="s">
-        <v>409</v>
+        <v>407</v>
       </c>
     </row>
     <row r="5" spans="1:13">
@@ -9383,14 +9624,14 @@
       <c r="I5" s="152" t="s">
         <v>35</v>
       </c>
-      <c r="K5" s="196" t="s">
-        <v>433</v>
+      <c r="K5" s="162" t="s">
+        <v>430</v>
       </c>
       <c r="L5">
         <v>16000</v>
       </c>
       <c r="M5" t="s">
-        <v>410</v>
+        <v>408</v>
       </c>
     </row>
     <row r="6" spans="1:13">
@@ -9417,14 +9658,14 @@
       </c>
       <c r="H6" s="148"/>
       <c r="I6" s="48"/>
-      <c r="K6" s="196" t="s">
-        <v>434</v>
+      <c r="K6" s="162" t="s">
+        <v>431</v>
       </c>
       <c r="L6">
         <v>13000</v>
       </c>
       <c r="M6" t="s">
-        <v>411</v>
+        <v>409</v>
       </c>
     </row>
     <row r="7" spans="1:13">
@@ -9449,14 +9690,14 @@
       </c>
       <c r="H7" s="148"/>
       <c r="I7" s="47"/>
-      <c r="K7" s="196" t="s">
-        <v>435</v>
+      <c r="K7" s="162" t="s">
+        <v>432</v>
       </c>
       <c r="L7">
         <v>6000</v>
       </c>
       <c r="M7" t="s">
-        <v>412</v>
+        <v>410</v>
       </c>
     </row>
     <row r="8" spans="1:13">
@@ -9483,14 +9724,14 @@
         <v>151</v>
       </c>
       <c r="I8" s="47"/>
-      <c r="K8" s="196" t="s">
-        <v>436</v>
+      <c r="K8" s="162" t="s">
+        <v>433</v>
       </c>
       <c r="L8">
         <v>6000</v>
       </c>
       <c r="M8" t="s">
-        <v>413</v>
+        <v>411</v>
       </c>
     </row>
     <row r="9" spans="1:13">
@@ -9515,14 +9756,14 @@
       </c>
       <c r="H9" s="148"/>
       <c r="I9" s="48"/>
-      <c r="K9" s="196" t="s">
-        <v>437</v>
+      <c r="K9" s="162" t="s">
+        <v>434</v>
       </c>
       <c r="L9">
         <v>7000</v>
       </c>
       <c r="M9" t="s">
-        <v>414</v>
+        <v>412</v>
       </c>
     </row>
     <row r="10" spans="1:13">
@@ -9549,14 +9790,14 @@
         <v>0</v>
       </c>
       <c r="I10" s="82"/>
-      <c r="K10" s="196" t="s">
-        <v>438</v>
+      <c r="K10" s="162" t="s">
+        <v>435</v>
       </c>
       <c r="L10">
         <v>8000</v>
       </c>
       <c r="M10" t="s">
-        <v>415</v>
+        <v>413</v>
       </c>
     </row>
     <row r="11" spans="1:13">
@@ -9583,14 +9824,14 @@
         <v>0</v>
       </c>
       <c r="I11" s="82"/>
-      <c r="K11" s="197" t="s">
-        <v>439</v>
+      <c r="K11" s="163" t="s">
+        <v>436</v>
       </c>
       <c r="L11">
         <v>8000</v>
       </c>
       <c r="M11" t="s">
-        <v>416</v>
+        <v>414</v>
       </c>
     </row>
     <row r="12" spans="1:13" ht="17.25" thickBot="1">
@@ -9617,451 +9858,451 @@
       </c>
       <c r="H12" s="93"/>
       <c r="I12" s="85"/>
-      <c r="K12" s="197" t="s">
-        <v>440</v>
+      <c r="K12" s="163" t="s">
+        <v>437</v>
       </c>
       <c r="L12">
         <v>10000</v>
       </c>
       <c r="M12" t="s">
-        <v>417</v>
+        <v>415</v>
       </c>
     </row>
     <row r="13" spans="1:13">
-      <c r="K13" s="197" t="s">
-        <v>441</v>
+      <c r="K13" s="163" t="s">
+        <v>438</v>
       </c>
       <c r="L13">
         <v>18000</v>
       </c>
       <c r="M13" t="s">
-        <v>418</v>
+        <v>416</v>
       </c>
     </row>
     <row r="14" spans="1:13">
-      <c r="K14" s="197" t="s">
-        <v>442</v>
+      <c r="K14" s="163" t="s">
+        <v>439</v>
       </c>
       <c r="L14">
         <v>6800</v>
       </c>
       <c r="M14" t="s">
-        <v>419</v>
+        <v>417</v>
       </c>
     </row>
     <row r="15" spans="1:13">
-      <c r="K15" s="197" t="s">
-        <v>443</v>
+      <c r="K15" s="163" t="s">
+        <v>440</v>
       </c>
       <c r="L15">
         <v>5500</v>
       </c>
       <c r="M15" t="s">
-        <v>420</v>
+        <v>418</v>
       </c>
     </row>
     <row r="16" spans="1:13">
       <c r="B16" s="157"/>
-      <c r="K16" s="197" t="s">
-        <v>444</v>
+      <c r="K16" s="163" t="s">
+        <v>441</v>
       </c>
       <c r="L16">
         <v>6000</v>
       </c>
       <c r="M16" t="s">
-        <v>421</v>
+        <v>419</v>
       </c>
     </row>
     <row r="17" spans="2:13">
       <c r="B17" s="157"/>
-      <c r="K17" s="199" t="s">
-        <v>445</v>
+      <c r="K17" s="165" t="s">
+        <v>442</v>
       </c>
       <c r="L17">
         <v>6000</v>
       </c>
       <c r="M17" t="s">
-        <v>422</v>
+        <v>420</v>
       </c>
     </row>
     <row r="18" spans="2:13">
       <c r="B18" s="157"/>
-      <c r="K18" s="200" t="s">
-        <v>446</v>
+      <c r="K18" s="166" t="s">
+        <v>443</v>
       </c>
       <c r="L18">
         <v>4000</v>
       </c>
       <c r="M18" t="s">
-        <v>423</v>
+        <v>421</v>
       </c>
     </row>
     <row r="19" spans="2:13">
       <c r="B19" s="157"/>
-      <c r="K19" s="200" t="s">
-        <v>447</v>
+      <c r="K19" s="166" t="s">
+        <v>444</v>
       </c>
       <c r="L19">
         <v>550</v>
       </c>
       <c r="M19" t="s">
-        <v>424</v>
+        <v>422</v>
       </c>
     </row>
     <row r="20" spans="2:13">
       <c r="B20" s="157"/>
-      <c r="K20" s="200" t="s">
-        <v>448</v>
+      <c r="K20" s="166" t="s">
+        <v>445</v>
       </c>
       <c r="L20">
         <v>35000</v>
       </c>
       <c r="M20" t="s">
-        <v>425</v>
+        <v>423</v>
       </c>
     </row>
     <row r="21" spans="2:13">
       <c r="B21" s="57"/>
-      <c r="K21" s="200" t="s">
-        <v>449</v>
+      <c r="K21" s="166" t="s">
+        <v>446</v>
       </c>
       <c r="L21">
         <v>9700</v>
       </c>
       <c r="M21" t="s">
-        <v>426</v>
+        <v>424</v>
       </c>
     </row>
     <row r="22" spans="2:13">
       <c r="B22" s="57"/>
-      <c r="K22" s="200" t="s">
-        <v>450</v>
+      <c r="K22" s="166" t="s">
+        <v>447</v>
       </c>
       <c r="L22">
         <v>4900</v>
       </c>
       <c r="M22" t="s">
-        <v>427</v>
+        <v>425</v>
       </c>
     </row>
     <row r="23" spans="2:13">
-      <c r="B23" s="195"/>
-      <c r="K23" s="201" t="s">
-        <v>451</v>
+      <c r="B23" s="161"/>
+      <c r="K23" s="167" t="s">
+        <v>448</v>
       </c>
       <c r="L23">
         <v>6000</v>
       </c>
       <c r="M23" t="s">
-        <v>428</v>
+        <v>426</v>
       </c>
     </row>
     <row r="24" spans="2:13">
-      <c r="K24" s="202" t="s">
-        <v>452</v>
+      <c r="K24" s="168" t="s">
+        <v>449</v>
       </c>
       <c r="L24">
         <v>6000</v>
       </c>
       <c r="M24" t="s">
-        <v>429</v>
+        <v>427</v>
       </c>
     </row>
     <row r="25" spans="2:13">
-      <c r="K25" s="202" t="s">
-        <v>453</v>
+      <c r="K25" s="168" t="s">
+        <v>450</v>
       </c>
       <c r="L25">
         <v>8500</v>
       </c>
       <c r="M25" t="s">
-        <v>454</v>
+        <v>451</v>
       </c>
     </row>
     <row r="26" spans="2:13">
-      <c r="K26" s="202" t="s">
-        <v>455</v>
+      <c r="K26" s="168" t="s">
+        <v>452</v>
       </c>
       <c r="L26">
         <v>2500</v>
       </c>
       <c r="M26" t="s">
-        <v>456</v>
+        <v>453</v>
       </c>
     </row>
     <row r="27" spans="2:13">
-      <c r="K27" s="202" t="s">
-        <v>457</v>
+      <c r="K27" s="168" t="s">
+        <v>454</v>
       </c>
       <c r="L27">
         <v>5500</v>
       </c>
       <c r="M27" t="s">
-        <v>458</v>
+        <v>455</v>
       </c>
     </row>
     <row r="28" spans="2:13">
-      <c r="K28" s="202" t="s">
-        <v>459</v>
+      <c r="K28" s="168" t="s">
+        <v>456</v>
       </c>
       <c r="L28">
         <v>3000</v>
       </c>
       <c r="M28" t="s">
-        <v>460</v>
+        <v>457</v>
       </c>
     </row>
     <row r="29" spans="2:13">
-      <c r="K29" s="203" t="s">
-        <v>461</v>
+      <c r="K29" s="169" t="s">
+        <v>458</v>
       </c>
       <c r="L29">
         <v>3000</v>
       </c>
       <c r="M29" t="s">
-        <v>462</v>
+        <v>459</v>
       </c>
     </row>
     <row r="30" spans="2:13">
-      <c r="K30" s="203" t="s">
-        <v>463</v>
+      <c r="K30" s="169" t="s">
+        <v>460</v>
       </c>
       <c r="L30">
         <v>3000</v>
       </c>
       <c r="M30" t="s">
-        <v>464</v>
+        <v>461</v>
       </c>
     </row>
     <row r="31" spans="2:13">
-      <c r="K31" s="203" t="s">
-        <v>465</v>
+      <c r="K31" s="169" t="s">
+        <v>462</v>
       </c>
       <c r="L31">
         <v>6600</v>
       </c>
       <c r="M31" t="s">
-        <v>466</v>
+        <v>463</v>
       </c>
     </row>
     <row r="32" spans="2:13">
-      <c r="K32" s="204" t="s">
-        <v>468</v>
+      <c r="K32" s="170" t="s">
+        <v>465</v>
       </c>
       <c r="L32">
         <v>35000</v>
       </c>
       <c r="M32" t="s">
-        <v>467</v>
+        <v>464</v>
       </c>
     </row>
     <row r="33" spans="11:13">
-      <c r="K33" s="204" t="s">
-        <v>469</v>
+      <c r="K33" s="170" t="s">
+        <v>466</v>
       </c>
       <c r="L33">
         <v>2200</v>
       </c>
       <c r="M33" t="s">
-        <v>470</v>
+        <v>467</v>
       </c>
     </row>
     <row r="34" spans="11:13">
-      <c r="K34" s="204" t="s">
-        <v>471</v>
+      <c r="K34" s="170" t="s">
+        <v>468</v>
       </c>
       <c r="L34">
         <v>4000</v>
       </c>
       <c r="M34" t="s">
-        <v>472</v>
+        <v>469</v>
       </c>
     </row>
     <row r="35" spans="11:13">
-      <c r="K35" s="205" t="s">
-        <v>473</v>
+      <c r="K35" s="171" t="s">
+        <v>470</v>
       </c>
       <c r="L35">
         <v>700</v>
       </c>
       <c r="M35" t="s">
-        <v>475</v>
+        <v>472</v>
       </c>
     </row>
     <row r="36" spans="11:13">
-      <c r="K36" s="205" t="s">
-        <v>474</v>
+      <c r="K36" s="171" t="s">
+        <v>471</v>
       </c>
       <c r="L36">
         <v>3100</v>
       </c>
       <c r="M36" t="s">
-        <v>476</v>
+        <v>473</v>
       </c>
     </row>
     <row r="37" spans="11:13">
-      <c r="K37" s="205" t="s">
-        <v>483</v>
+      <c r="K37" s="171" t="s">
+        <v>480</v>
       </c>
       <c r="L37">
         <v>2800</v>
       </c>
       <c r="M37" t="s">
-        <v>477</v>
+        <v>474</v>
       </c>
     </row>
     <row r="38" spans="11:13">
-      <c r="K38" s="205" t="s">
-        <v>484</v>
+      <c r="K38" s="171" t="s">
+        <v>481</v>
       </c>
       <c r="L38">
         <v>10000</v>
       </c>
       <c r="M38" t="s">
-        <v>478</v>
+        <v>475</v>
       </c>
     </row>
     <row r="39" spans="11:13">
-      <c r="K39" s="205" t="s">
-        <v>485</v>
+      <c r="K39" s="171" t="s">
+        <v>482</v>
       </c>
       <c r="L39">
         <v>1500</v>
       </c>
       <c r="M39" t="s">
-        <v>479</v>
+        <v>476</v>
       </c>
     </row>
     <row r="40" spans="11:13">
-      <c r="K40" s="205" t="s">
-        <v>486</v>
+      <c r="K40" s="171" t="s">
+        <v>483</v>
       </c>
       <c r="L40">
         <v>5000</v>
       </c>
       <c r="M40" t="s">
-        <v>480</v>
+        <v>477</v>
       </c>
     </row>
     <row r="41" spans="11:13">
-      <c r="K41" s="198" t="s">
-        <v>487</v>
+      <c r="K41" s="164" t="s">
+        <v>484</v>
       </c>
       <c r="L41">
         <v>4000</v>
       </c>
       <c r="M41" t="s">
-        <v>481</v>
+        <v>478</v>
       </c>
     </row>
     <row r="42" spans="11:13">
-      <c r="K42" s="198" t="s">
-        <v>497</v>
+      <c r="K42" s="164" t="s">
+        <v>494</v>
       </c>
       <c r="L42">
         <v>3300</v>
       </c>
       <c r="M42" t="s">
-        <v>482</v>
+        <v>479</v>
       </c>
     </row>
     <row r="43" spans="11:13">
-      <c r="K43" s="198" t="s">
-        <v>498</v>
+      <c r="K43" s="164" t="s">
+        <v>495</v>
       </c>
       <c r="L43">
         <v>32000</v>
       </c>
       <c r="M43" t="s">
-        <v>488</v>
+        <v>485</v>
       </c>
     </row>
     <row r="44" spans="11:13">
-      <c r="K44" s="198" t="s">
-        <v>499</v>
+      <c r="K44" s="164" t="s">
+        <v>496</v>
       </c>
       <c r="L44">
         <v>3500</v>
       </c>
       <c r="M44" t="s">
-        <v>489</v>
+        <v>486</v>
       </c>
     </row>
     <row r="45" spans="11:13">
-      <c r="K45" s="198" t="s">
-        <v>500</v>
+      <c r="K45" s="164" t="s">
+        <v>497</v>
       </c>
       <c r="L45">
         <v>10900</v>
       </c>
       <c r="M45" t="s">
-        <v>490</v>
+        <v>487</v>
       </c>
     </row>
     <row r="46" spans="11:13">
-      <c r="K46" s="198" t="s">
-        <v>501</v>
+      <c r="K46" s="164" t="s">
+        <v>498</v>
       </c>
       <c r="L46">
         <v>24000</v>
       </c>
       <c r="M46" t="s">
-        <v>491</v>
+        <v>488</v>
       </c>
     </row>
     <row r="47" spans="11:13">
-      <c r="K47" s="198" t="s">
-        <v>502</v>
+      <c r="K47" s="164" t="s">
+        <v>499</v>
       </c>
       <c r="L47">
         <v>7700</v>
       </c>
       <c r="M47" t="s">
-        <v>492</v>
+        <v>489</v>
       </c>
     </row>
     <row r="48" spans="11:13">
-      <c r="K48" s="198" t="s">
-        <v>503</v>
+      <c r="K48" s="164" t="s">
+        <v>500</v>
       </c>
       <c r="L48">
         <v>13900</v>
       </c>
       <c r="M48" t="s">
-        <v>493</v>
+        <v>490</v>
       </c>
     </row>
     <row r="49" spans="11:13">
-      <c r="K49" s="198" t="s">
-        <v>504</v>
+      <c r="K49" s="164" t="s">
+        <v>501</v>
       </c>
       <c r="L49">
         <v>3800</v>
       </c>
       <c r="M49" t="s">
-        <v>494</v>
+        <v>491</v>
       </c>
     </row>
     <row r="50" spans="11:13">
-      <c r="K50" s="198" t="s">
-        <v>505</v>
+      <c r="K50" s="164" t="s">
+        <v>502</v>
       </c>
       <c r="L50">
         <v>7600</v>
       </c>
       <c r="M50" t="s">
-        <v>495</v>
+        <v>492</v>
       </c>
     </row>
     <row r="51" spans="11:13">
-      <c r="K51" s="198" t="s">
-        <v>506</v>
+      <c r="K51" s="164" t="s">
+        <v>503</v>
       </c>
       <c r="L51">
         <v>9900</v>
       </c>
       <c r="M51" t="s">
-        <v>496</v>
+        <v>493</v>
       </c>
     </row>
   </sheetData>
